--- a/Be A Best Developer.xlsx
+++ b/Be A Best Developer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaukumar3\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FD1CBB-B05D-4F87-9A92-863534BCF714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F748CCD-7FD2-4A8F-88E4-CAEB10E07442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{889217B5-C914-4F2B-8AD2-3B303009D00F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{889217B5-C914-4F2B-8AD2-3B303009D00F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Topics</t>
   </si>
@@ -150,13 +150,70 @@
   </si>
   <si>
     <t>kafka-consumer, kafka-publisher</t>
+  </si>
+  <si>
+    <t>doctor-service, hospital-gateway</t>
+  </si>
+  <si>
+    <t>spring-boot-validation-example</t>
+  </si>
+  <si>
+    <t>cloud-config-server, cloud-gateway, elk-stack-logging-example, order-service, paymentorder-service</t>
+  </si>
+  <si>
+    <t>completablefuture, Java_8_Features</t>
+  </si>
+  <si>
+    <t>jpa-manytomany</t>
+  </si>
+  <si>
+    <t>spring-data-jpa-mapping</t>
+  </si>
+  <si>
+    <t>spring-dats-jpa-Indepth</t>
+  </si>
+  <si>
+    <t>spring-boot-pagination-sorting</t>
+  </si>
+  <si>
+    <t>spring-boot-crud-example</t>
+  </si>
+  <si>
+    <t>flight-service-example</t>
+  </si>
+  <si>
+    <t>employee-service</t>
+  </si>
+  <si>
+    <t>spring-basic-security</t>
+  </si>
+  <si>
+    <t>spring-ldap-security</t>
+  </si>
+  <si>
+    <t>spring-security-jwt-example</t>
+  </si>
+  <si>
+    <t>ProductService</t>
+  </si>
+  <si>
+    <t>CommonService, OrderService, PaymentService, ShipmentsService, UserServiceSaga</t>
+  </si>
+  <si>
+    <t>spring-mongodb, spring-mongo-embedded, springboot-mongo-atlas, mongo-sequence-id-example</t>
+  </si>
+  <si>
+    <t>spring-aop, spring-aop-logging, spring-aop-executiontime-tracker</t>
+  </si>
+  <si>
+    <t>SOLID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,32 +243,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="10"/>
-      <color rgb="FF0969DA"/>
+      <color rgb="FF00B050"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0969DA"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -244,27 +341,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -272,12 +355,41 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -595,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4507D6-F7D3-41AE-A7D7-0AFDDFEDA1F5}">
   <dimension ref="B3:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,193 +723,251 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="2:6" s="10" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="2:6" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" s="10" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="2:6" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="12" t="s">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="2:6" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="13" t="s">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="14" t="s">
+      <c r="F17" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="2:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
+      <c r="F21" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B25" s="4" t="s">
+      <c r="F23" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="4" t="s">
+      <c r="F25" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
+      <c r="F29" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B31" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B33" s="4" t="s">
+      <c r="F31" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B35" s="4" t="s">
+      <c r="F33" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B35" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B37" s="4" t="s">
+      <c r="F35" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="B39" s="5" t="s">
+      <c r="F37" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.45">
+      <c r="B39" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B41" s="4" t="s">
+      <c r="F39" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B41" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="4" t="s">
+      <c r="F41" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="4" t="s">
+      <c r="F43" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="3" t="s">
+      <c r="F45" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" ht="32" x14ac:dyDescent="0.45">
-      <c r="B49" s="5" t="s">
+      <c r="F47" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.45">
+      <c r="B49" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B51" s="4" t="s">
+      <c r="F49" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B53" s="4" t="s">
+      <c r="F51" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B53" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16" x14ac:dyDescent="0.45">
-      <c r="B55" s="8" t="s">
+    <row r="55" spans="2:6" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="B55" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="16" x14ac:dyDescent="0.45">
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="2:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="B57" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="3" t="s">
+    <row r="59" spans="2:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B59" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B61" s="4" t="s">
+      <c r="F59" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" s="17" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B61" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B63" s="4" t="s">
+      <c r="F61" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B63" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>31</v>
       </c>
     </row>
